--- a/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Cox.2G.MODEL1.30days.xlsx
+++ b/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Cox.2G.MODEL1.30days.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t xml:space="preserve">MCP1_pg_ug_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_pg_ml_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_rank</t>
   </si>
   <si>
     <t xml:space="preserve">epstroke.30days</t>
@@ -453,28 +459,28 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.757997734261538</v>
+        <v>1.11962496853713</v>
       </c>
       <c r="E2" t="n">
-        <v>0.338033526475713</v>
+        <v>0.359458849191985</v>
       </c>
       <c r="F2" t="n">
-        <v>2.13399910666932</v>
+        <v>3.06370500204444</v>
       </c>
       <c r="G2" t="n">
-        <v>1.10015603788744</v>
+        <v>1.5145004129068</v>
       </c>
       <c r="H2" t="n">
-        <v>4.13936935346929</v>
+        <v>6.19761358898339</v>
       </c>
       <c r="I2" t="n">
-        <v>2.24237442411204</v>
+        <v>3.11475144110069</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0249371833520766</v>
+        <v>0.00184099973150297</v>
       </c>
       <c r="K2" t="n">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="L2" t="n">
         <v>40</v>
@@ -485,37 +491,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="n">
-        <v>0.503985573477818</v>
+        <v>0.820847048319384</v>
       </c>
       <c r="E3" t="n">
-        <v>0.353377768908729</v>
+        <v>0.358633874094218</v>
       </c>
       <c r="F3" t="n">
-        <v>1.65530548268353</v>
+        <v>2.27242387536542</v>
       </c>
       <c r="G3" t="n">
-        <v>0.828088825163347</v>
+        <v>1.12515933315019</v>
       </c>
       <c r="H3" t="n">
-        <v>3.30886754867351</v>
+        <v>4.589492454258</v>
       </c>
       <c r="I3" t="n">
-        <v>1.42619490477339</v>
+        <v>2.28881627646734</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1538120899903</v>
+        <v>0.022090029371139</v>
       </c>
       <c r="K3" t="n">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -523,37 +529,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="n">
-        <v>0.970130422834481</v>
+        <v>-0.0533758162933218</v>
       </c>
       <c r="E4" t="n">
-        <v>0.677911193217971</v>
+        <v>0.504576631738758</v>
       </c>
       <c r="F4" t="n">
-        <v>2.63828852998459</v>
+        <v>0.948023662786552</v>
       </c>
       <c r="G4" t="n">
-        <v>0.69867086310642</v>
+        <v>0.35262644405829</v>
       </c>
       <c r="H4" t="n">
-        <v>9.96258286269485</v>
+        <v>2.54872792539253</v>
       </c>
       <c r="I4" t="n">
-        <v>1.43105827509556</v>
+        <v>-0.105783369533762</v>
       </c>
       <c r="J4" t="n">
-        <v>0.15241351425619</v>
+        <v>0.915754231936841</v>
       </c>
       <c r="K4" t="n">
-        <v>1184</v>
+        <v>549</v>
       </c>
       <c r="L4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -567,31 +573,335 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>1.06430545892576</v>
+        <v>0.907885502034972</v>
       </c>
       <c r="E5" t="n">
-        <v>1.15887479789365</v>
+        <v>0.377280671418516</v>
       </c>
       <c r="F5" t="n">
-        <v>2.89882493173745</v>
+        <v>2.47907498836033</v>
       </c>
       <c r="G5" t="n">
-        <v>0.299066553038819</v>
+        <v>1.18342808808882</v>
       </c>
       <c r="H5" t="n">
-        <v>28.098046737349</v>
+        <v>5.193228773063</v>
       </c>
       <c r="I5" t="n">
-        <v>0.918395551322905</v>
+        <v>2.40639282850475</v>
       </c>
       <c r="J5" t="n">
-        <v>0.358411818902266</v>
+        <v>0.0161109303441679</v>
       </c>
       <c r="K5" t="n">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="L5" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.733671201916969</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.383138843650386</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.08271264838825</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.982867527261892</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.41330276506389</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.91489642482307</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0555057138602618</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1187</v>
+      </c>
+      <c r="L6" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.208084795502029</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.550356875897256</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.23131757531419</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.418694106713552</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.62112326628682</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.378090661923294</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.705363245048678</v>
+      </c>
+      <c r="K7" t="n">
+        <v>549</v>
+      </c>
+      <c r="L7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.987619627716873</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.704674023443691</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.68483595085675</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.674663346647003</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10.6843570483523</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.40152693991819</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.161056557343573</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1186</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.931359355801676</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.725473263558908</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.53795682012838</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.612278373777202</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.5200919985131</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.28379556157971</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.199213496991895</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1187</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.0472681771167935</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.933970603742045</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.953831567488339</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.15291844170768</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.94954178827189</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-0.0506099195492973</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.959636358299397</v>
+      </c>
+      <c r="K10" t="n">
+        <v>549</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.62403826178446</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.26373486532014</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5.07353727538219</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.426184863807573</v>
+      </c>
+      <c r="H11" t="n">
+        <v>60.3981573975249</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.28510995965363</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.198753861692165</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1186</v>
+      </c>
+      <c r="L11" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.255589970332927</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.15243760621838</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.774459455050924</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0809140597320861</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.41264805527896</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.221782046120157</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.824483556544668</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1187</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>140.863868031622</v>
+      </c>
+      <c r="E13" t="n">
+        <v>34819.2952907117</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15010687568824498783824533463539265762500444067615544447074304</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.00404556918385419</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.996772111613488</v>
+      </c>
+      <c r="K13" t="n">
+        <v>549</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
